--- a/src/main/resources/static/plantilla_trayectos.xlsx
+++ b/src/main/resources/static/plantilla_trayectos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8a6a4856377d5940/Escritorio/DEVELOPMENT/vehiculos-api/vehiculos-api/src/main/resources/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7862803B-5046-4FBE-9DB3-CF5E510BB561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{7862803B-5046-4FBE-9DB3-CF5E510BB561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C4D7A0F-811E-4E7F-8A3E-FC2111F60A9E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3295AC4-4DDF-47E8-A77D-16A8A3821F80}"/>
   </bookViews>
@@ -463,10 +463,16 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
